--- a/epdiy-v7-raw/fabrication/epdiy-v7-BOM.xlsx
+++ b/epdiy-v7-raw/fabrication/epdiy-v7-BOM.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">C4322213</t>
   </si>
   <si>
-    <t xml:space="preserve">R11</t>
+    <t xml:space="preserve">R11,R12,R14,R15</t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t xml:space="preserve">C528053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW5,SW3,SW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY-SMD_K2-1806SQ-A3DW-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5143621</t>
   </si>
 </sst>
 </file>
@@ -520,6 +532,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -586,13 +599,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -612,17 +629,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.21"/>
   </cols>
   <sheetData>
@@ -1296,6 +1313,20 @@
       </c>
       <c r="D48" s="0" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
